--- a/VIRADA FINANCEIRA.xlsx
+++ b/VIRADA FINANCEIRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc81746c0a7c734e/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{9BB178F2-71B9-4432-9282-9F515397CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06116EE-AABC-4496-9C9A-83FA9880006D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{9BB178F2-71B9-4432-9282-9F515397CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA08A674-334C-41FA-BD70-7D9779EBB347}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CC3EBE25-5E96-4C28-9B35-A816C6556DBF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>DATA</t>
   </si>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -209,19 +209,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -252,72 +252,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="2"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -356,46 +291,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -443,6 +339,110 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="2"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -462,30 +462,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{300C16D3-333D-4742-969D-B82B4228A6CE}" name="Tabela1" displayName="Tabela1" ref="B2:E5" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B2:E5" xr:uid="{300C16D3-333D-4742-969D-B82B4228A6CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{300C16D3-333D-4742-969D-B82B4228A6CE}" name="Tabela1" displayName="Tabela1" ref="B2:E7" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:E7" xr:uid="{300C16D3-333D-4742-969D-B82B4228A6CE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98E103FD-3AE3-4458-827B-CECF05FD101E}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{69B38B54-6111-41A2-AB26-C258198FD31E}" name="MÊS" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{98E103FD-3AE3-4458-827B-CECF05FD101E}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{69B38B54-6111-41A2-AB26-C258198FD31E}" name="MÊS" dataDxfId="2">
       <calculatedColumnFormula>TEXT(B3,"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4347D56B-6F5F-49EB-931F-C6CA29791DAF}" name="NOME" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5146B0F9-7DBA-4699-ADC7-841FD7FE07A8}" name="VALOR" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4347D56B-6F5F-49EB-931F-C6CA29791DAF}" name="NOME" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5146B0F9-7DBA-4699-ADC7-841FD7FE07A8}" name="VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50A83D3C-8EA9-489D-8EF8-FC43B1DFF877}" name="Tabela13" displayName="Tabela13" ref="G2:J7" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="G2:J7" xr:uid="{50A83D3C-8EA9-489D-8EF8-FC43B1DFF877}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50A83D3C-8EA9-489D-8EF8-FC43B1DFF877}" name="Tabela13" displayName="Tabela13" ref="G2:J11" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="G2:J11" xr:uid="{50A83D3C-8EA9-489D-8EF8-FC43B1DFF877}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE94798-EAC2-463B-9F3C-B10C4A601ED4}" name="DATA" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{15163F5E-DD98-453D-A561-472A01E8C0ED}" name="MÊS" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{9CE94798-EAC2-463B-9F3C-B10C4A601ED4}" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{15163F5E-DD98-453D-A561-472A01E8C0ED}" name="MÊS" dataDxfId="7">
       <calculatedColumnFormula>TEXT(G3,"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6560642A-2EC6-4A9F-A4EC-FD80B9FE7E39}" name="NOME" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5CA68554-518E-4D14-9AF0-B7C5AF6C3994}" name="VALOR" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6560642A-2EC6-4A9F-A4EC-FD80B9FE7E39}" name="NOME" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5CA68554-518E-4D14-9AF0-B7C5AF6C3994}" name="VALOR" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -811,7 +811,7 @@
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -918,16 +918,16 @@
       <c r="J4" s="4">
         <v>105</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>45992</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="3" t="str">
         <f>TEXT(B5,"mmm")</f>
         <v>dez</v>
       </c>
@@ -953,12 +953,25 @@
       <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f>SUMIF(Tabela1[MÊS],M2,Tabela1[VALOR])</f>
         <v>4100</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>TEXT(B6,"mmm")</f>
+        <v>jan</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2200</v>
+      </c>
       <c r="G6" s="2">
         <v>45996</v>
       </c>
@@ -975,16 +988,29 @@
       <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f>SUMIF(Tabela13[MÊS],M2,Tabela13[VALOR])</f>
         <v>2717</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>TEXT(B7,"mmm")</f>
+        <v>nov</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2200</v>
+      </c>
       <c r="G7" s="2">
         <v>45998</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="3" t="str">
         <f>TEXT(G7,"mmm")</f>
         <v>dez</v>
       </c>
@@ -997,42 +1023,96 @@
       <c r="L7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f>M5-M6</f>
         <v>1383</v>
       </c>
     </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G8" s="2">
+        <v>45966</v>
+      </c>
+      <c r="H8" s="13" t="str">
+        <f>TEXT(G8,"mmm")</f>
+        <v>nov</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>250</v>
+      </c>
+    </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="L9" s="11" t="s">
+      <c r="G9" s="2">
+        <v>45966</v>
+      </c>
+      <c r="H9" s="13" t="str">
+        <f>TEXT(G9,"mmm")</f>
+        <v>nov</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>150</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="L10" s="12" t="s">
+      <c r="G10" s="2">
+        <v>46027</v>
+      </c>
+      <c r="H10" s="13" t="str">
+        <f>TEXT(G10,"mmm")</f>
+        <v>jan</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <v>179</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f>SUM(Tabela1[VALOR])</f>
-        <v>4100</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="L11" s="12" t="s">
+      <c r="G11" s="2">
+        <v>46027</v>
+      </c>
+      <c r="H11" s="13" t="str">
+        <f>TEXT(G11,"mmm")</f>
+        <v>jan</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4">
+        <v>200</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f>SUM(Tabela13[VALOR])</f>
-        <v>2717</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <f>M10-M11</f>
-        <v>1383</v>
+        <v>5004</v>
       </c>
     </row>
   </sheetData>
